--- a/01-Excel/01-Activites/3/Activities/12-Ins_StatisticsAddon/Solved/MovingAverages.xlsx
+++ b/01-Excel/01-Activites/3/Activities/12-Ins_StatisticsAddon/Solved/MovingAverages.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\08-Ins_MovingAverages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="51B984A3CC64C4236FA77ED876DEF10FB53764FF" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{50C89576-D7D7-416C-ABD6-84E385541CF0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3760A0A2-0EA2-4B4C-BEB9-61450D97D5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,17 +426,17 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="5.59765625" customWidth="1"/>
-    <col min="14" max="14" width="4.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="5.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,53 +477,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1">
-        <v>540</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="I2" s="1">
-        <v>870</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="K2" s="1">
-        <v>1100</v>
+        <v>75</v>
       </c>
       <c r="L2" s="1">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1">
-        <v>950</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>3</v>
       </c>
